--- a/excel/TestData.xlsx
+++ b/excel/TestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29227"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6777C29B-7009-4534-AE7F-A568673E798D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{758D94E3-562E-4547-B474-43C20F3CEBD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Creds" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -31,34 +31,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>CarsName</t>
-  </si>
-  <si>
-    <t>Brand</t>
-  </si>
-  <si>
-    <t>Tiago</t>
-  </si>
-  <si>
-    <t>Tata</t>
-  </si>
-  <si>
-    <t>Scorpio</t>
-  </si>
-  <si>
-    <t>M&amp;M</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>product_name</t>
+  </si>
+  <si>
+    <t>harshal@gmail.com</t>
+  </si>
+  <si>
+    <t>Harshal1!</t>
+  </si>
+  <si>
+    <t>ADIDAS ORIGINAL</t>
+  </si>
+  <si>
+    <t>Divya1@gmail.com</t>
+  </si>
+  <si>
+    <t>ZARA COAT 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -81,13 +95,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -420,42 +437,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
+      <c r="C3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{4D65B8A1-435C-4ACC-AD37-85E1C3565804}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{78CA3FD7-F89E-4B7F-BC00-1931F5994876}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>